--- a/Power requirements.xlsx
+++ b/Power requirements.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Batteries</t>
   </si>
@@ -130,6 +130,24 @@
   </si>
   <si>
     <t>https://www.analog.com/en/products/ltm8078.html</t>
+  </si>
+  <si>
+    <t>https://hitecrcd.com/</t>
+  </si>
+  <si>
+    <t>5V,5A</t>
+  </si>
+  <si>
+    <t>5V,1.5A</t>
+  </si>
+  <si>
+    <t>5V,0.5A</t>
+  </si>
+  <si>
+    <t>LT8640</t>
+  </si>
+  <si>
+    <t>LT8608</t>
   </si>
 </sst>
 </file>
@@ -189,12 +207,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -502,7 +522,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -510,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,11 +544,11 @@
     <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,14 +568,15 @@
         <v>9</v>
       </c>
       <c r="H1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="6"/>
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -575,16 +596,19 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -604,16 +628,17 @@
         <v>1.8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -638,11 +663,14 @@
       <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -664,35 +692,63 @@
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="I5" s="6"/>
+      <c r="K5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="J6" s="2" t="s">
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="K6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -700,7 +756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -709,25 +765,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>33</v>
       </c>
@@ -735,8 +791,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D13" r:id="rId1"/>
+    <hyperlink ref="F13" r:id="rId2"/>
+    <hyperlink ref="M3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Power requirements.xlsx
+++ b/Power requirements.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Batteries</t>
   </si>
@@ -123,12 +123,6 @@
     <t>http://www.ti.com/lit/ds/symlink/lm2596.pdf</t>
   </si>
   <si>
-    <t>surface mount for pcb</t>
-  </si>
-  <si>
-    <t>also through-hole for testing</t>
-  </si>
-  <si>
     <t>https://www.analog.com/en/products/ltm8078.html</t>
   </si>
   <si>
@@ -148,6 +142,27 @@
   </si>
   <si>
     <t>LT8608</t>
+  </si>
+  <si>
+    <t>Pi 3</t>
+  </si>
+  <si>
+    <t>Input: 5V via gpio header</t>
+  </si>
+  <si>
+    <t>Input: 5V, 2A via micro USB</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>Output: 5/3.3V</t>
+  </si>
+  <si>
+    <t>LT7101</t>
+  </si>
+  <si>
+    <t>wh</t>
   </si>
 </sst>
 </file>
@@ -522,7 +537,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,25 +545,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,14 +584,15 @@
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="6"/>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="6"/>
+      <c r="L1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -596,19 +612,23 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2">
+        <f>(5*5)*0.5</f>
+        <v>12.5</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -628,17 +648,21 @@
         <v>1.8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I3" s="6"/>
-      <c r="K3" s="1" t="s">
+      <c r="J3" s="6">
+        <f>(1.5*5)*0.5</f>
+        <v>3.75</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -664,13 +688,17 @@
         <v>11</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="6">
+        <f>(5*2)*0.5</f>
+        <v>5</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -692,12 +720,18 @@
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="K5" s="2" t="s">
+      <c r="I5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="6">
+        <f>5*0.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
@@ -716,12 +750,18 @@
       <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="K6" s="2" t="s">
+      <c r="I6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="6">
+        <f>5*0.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
@@ -738,17 +778,28 @@
         <v>0.8</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J7" s="6">
+        <f>(5*0.5*0.5)</f>
+        <v>1.25</v>
+      </c>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8">
+        <f>SUM(J2:J7)</f>
+        <v>27.5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -756,7 +807,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -765,36 +816,50 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D13" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>33</v>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D13" r:id="rId1"/>
     <hyperlink ref="F13" r:id="rId2"/>
-    <hyperlink ref="M3" r:id="rId3"/>
+    <hyperlink ref="N3" r:id="rId3"/>
+    <hyperlink ref="G8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Power requirements.xlsx
+++ b/Power requirements.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fyjs2\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63D9ED8-053A-4092-BFA5-98708C4BF600}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Batteries</t>
   </si>
@@ -57,12 +63,6 @@
     <t>Stall Current (A)</t>
   </si>
   <si>
-    <t>5V,1A</t>
-  </si>
-  <si>
-    <t>5V,2A</t>
-  </si>
-  <si>
     <t>my-RIO</t>
   </si>
   <si>
@@ -108,9 +108,6 @@
     <t>3.3V output@0.15A</t>
   </si>
   <si>
-    <t>pi,arduinos,botboard,cameras</t>
-  </si>
-  <si>
     <t>30A</t>
   </si>
   <si>
@@ -129,21 +126,6 @@
     <t>https://hitecrcd.com/</t>
   </si>
   <si>
-    <t>5V,5A</t>
-  </si>
-  <si>
-    <t>5V,1.5A</t>
-  </si>
-  <si>
-    <t>5V,0.5A</t>
-  </si>
-  <si>
-    <t>LT8640</t>
-  </si>
-  <si>
-    <t>LT8608</t>
-  </si>
-  <si>
     <t>Pi 3</t>
   </si>
   <si>
@@ -159,16 +141,16 @@
     <t>Output: 5/3.3V</t>
   </si>
   <si>
-    <t>LT7101</t>
-  </si>
-  <si>
-    <t>wh</t>
+    <t>Input: 7-12V via gpio header</t>
+  </si>
+  <si>
+    <t>botboard,cameras</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -537,18 +519,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,16 +541,17 @@
     <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -582,19 +565,17 @@
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H1" s="6"/>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -611,26 +592,17 @@
       <c r="G2" s="1">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2">
-        <f>(5*5)*0.5</f>
-        <v>12.5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H2" s="6"/>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -647,27 +619,20 @@
       <c r="G3" s="1">
         <v>1.8</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6">
-        <f>(1.5*5)*0.5</f>
-        <v>3.75</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -684,23 +649,14 @@
       <c r="G4" s="1">
         <v>2.5</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="6">
-        <f>(5*2)*0.5</f>
-        <v>5</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H4" s="6"/>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -717,23 +673,14 @@
       <c r="G5" s="1">
         <v>1.2</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="6">
-        <f>5*0.5</f>
-        <v>2.5</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H5" s="6"/>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -747,23 +694,14 @@
       <c r="G6" s="1">
         <v>1.2</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="6">
-        <f>5*0.5</f>
-        <v>2.5</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H6" s="6"/>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -777,87 +715,79 @@
       <c r="G7" s="1">
         <v>0.8</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6">
-        <f>(5*0.5*0.5)</f>
-        <v>1.25</v>
-      </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H7" s="6"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8">
-        <f>SUM(J2:J7)</f>
-        <v>27.5</v>
-      </c>
-      <c r="K8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <f>12*1.25</f>
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>42</v>
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D13" r:id="rId1"/>
-    <hyperlink ref="F13" r:id="rId2"/>
-    <hyperlink ref="N3" r:id="rId3"/>
-    <hyperlink ref="G8" r:id="rId4"/>
+    <hyperlink ref="D13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
